--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Desktop\Projet-informatique-ClassCraft-mariogamer\classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Desktop\Projet-informatique-ClassCraft\classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA901C2-A345-40C3-B580-4C2115226E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34C205A-48F7-4494-9346-D7D69EABA8E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="38">
   <si>
     <t>Numéros d'admission</t>
   </si>
@@ -26,6 +26,27 @@
     <t>Pseudo de l'élève</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>klvjdslkvjfkldsv</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
     <t>4444</t>
   </si>
   <si>
@@ -35,9 +56,6 @@
     <t>pseudo</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -81,6 +99,12 @@
   </si>
   <si>
     <t>Kira</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>jlk</t>
   </si>
   <si>
     <t>louis</t>
@@ -146,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,91 +195,91 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -265,36 +289,36 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -303,91 +327,91 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
         <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
@@ -400,36 +424,36 @@
         <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -442,36 +466,36 @@
         <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -484,330 +508,330 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
         <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
         <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
         <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H13" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
         <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
         <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
         <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
@@ -820,36 +844,36 @@
         <v>2.0</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
@@ -862,162 +886,162 @@
         <v>2.0</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
         <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H19" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
         <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
@@ -1030,64 +1054,232 @@
         <v>2.0</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
         <v>1.0</v>
       </c>
       <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G25" t="n">
         <v>5.0</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
+      <c r="H25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="36">
   <si>
     <t>Numéros d'admission</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>457</t>
   </si>
   <si>
     <t>4444</t>
@@ -170,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -279,88 +273,88 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="H4" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="H5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -369,20 +363,20 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
         <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -402,16 +396,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
@@ -444,16 +438,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -486,16 +480,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -528,16 +522,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
@@ -570,16 +564,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
@@ -612,23 +606,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
         <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H12" t="n">
         <v>2.0</v>
@@ -654,16 +648,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
@@ -673,10 +667,10 @@
         <v>5.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
@@ -696,16 +690,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
@@ -718,7 +712,7 @@
         <v>3.0</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
@@ -738,29 +732,29 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
         <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
@@ -780,16 +774,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
@@ -822,16 +816,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
@@ -864,23 +858,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
         <v>1.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H18" t="n">
         <v>2.0</v>
@@ -906,26 +900,26 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -948,7 +942,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -957,17 +951,17 @@
         <v>0.0</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -990,16 +984,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
@@ -1032,16 +1026,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
@@ -1074,16 +1068,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
@@ -1116,23 +1110,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
         <v>1.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H24" t="n">
         <v>2.0</v>
@@ -1158,23 +1152,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="n">
         <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
@@ -1200,23 +1194,23 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
         <v>1.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H26" t="n">
         <v>2.0</v>
@@ -1237,48 +1231,6 @@
         <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" t="s">
         <v>6</v>
       </c>
     </row>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="39">
   <si>
     <t>Numéros d'admission</t>
   </si>
@@ -26,19 +26,22 @@
     <t>Pseudo de l'élève</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>klvjdslkvjfkldsv</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>defg</t>
   </si>
   <si>
     <t>4444</t>
@@ -111,6 +114,12 @@
   </si>
   <si>
     <t>Nour</t>
+  </si>
+  <si>
+    <t>Nour Asmani</t>
+  </si>
+  <si>
+    <t>Asmani</t>
   </si>
   <si>
     <t>patrick</t>
@@ -164,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -231,20 +240,20 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3" t="n">
         <v>8.0</v>
@@ -270,16 +279,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
@@ -295,33 +304,33 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
@@ -334,7 +343,7 @@
         <v>3.0</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -354,16 +363,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
@@ -396,16 +405,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
@@ -438,16 +447,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -480,16 +489,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -522,16 +531,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
@@ -564,16 +573,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
@@ -606,16 +615,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
@@ -648,16 +657,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
@@ -670,7 +679,7 @@
         <v>3.0</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
@@ -690,16 +699,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
@@ -712,7 +721,7 @@
         <v>3.0</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
@@ -732,16 +741,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
@@ -774,16 +783,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
@@ -816,16 +825,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
@@ -858,16 +867,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
@@ -900,16 +909,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
@@ -942,16 +951,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
@@ -984,16 +993,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
@@ -1026,16 +1035,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
@@ -1068,16 +1077,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
@@ -1110,26 +1119,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -1152,23 +1161,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="n">
         <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
@@ -1194,43 +1203,85 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
         <v>1.0</v>
       </c>
       <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>5.0</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="H27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
         <v>6</v>
       </c>
     </row>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="37">
   <si>
     <t>Numéros d'admission</t>
   </si>
@@ -47,19 +47,13 @@
     <t>4444</t>
   </si>
   <si>
-    <t>bob</t>
-  </si>
-  <si>
-    <t>pseudo</t>
+    <t xml:space="preserve">bobette </t>
+  </si>
+  <si>
+    <t>rocher</t>
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bobette </t>
-  </si>
-  <si>
-    <t>rocher</t>
   </si>
   <si>
     <t>burnie</t>
@@ -173,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -292,31 +286,31 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -330,20 +324,20 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -366,13 +360,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
@@ -408,13 +402,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
@@ -450,13 +444,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -492,13 +486,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -534,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
@@ -576,20 +570,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
         <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H11" t="n">
         <v>2.0</v>
@@ -618,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
@@ -634,10 +628,10 @@
         <v>5.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
         <v>6</v>
@@ -660,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
@@ -702,26 +696,26 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
         <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
@@ -744,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
@@ -786,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
@@ -828,20 +822,20 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
         <v>1.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H17" t="n">
         <v>2.0</v>
@@ -867,26 +861,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
@@ -909,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -918,17 +912,17 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -954,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
@@ -996,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
@@ -1038,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
@@ -1077,26 +1071,26 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>1.0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I23" t="s">
         <v>6</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -1128,17 +1122,17 @@
         <v>0.0</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -1164,20 +1158,20 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="n">
         <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
@@ -1206,20 +1200,20 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
         <v>1.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H26" t="n">
         <v>2.0</v>
@@ -1240,48 +1234,6 @@
         <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" t="s">
         <v>6</v>
       </c>
     </row>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="37">
   <si>
     <t>Numéros d'admission</t>
   </si>
@@ -47,7 +47,7 @@
     <t>4444</t>
   </si>
   <si>
-    <t xml:space="preserve">bobette </t>
+    <t xml:space="preserve">zbobette </t>
   </si>
   <si>
     <t>rocher</t>
@@ -178,12 +178,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -286,10 +289,10 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="H4" t="n">
         <v>3.0</v>
@@ -301,10 +304,10 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
@@ -1213,7 +1216,7 @@
         <v>1.0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="H26" t="n">
         <v>2.0</v>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="40">
+  <si>
+    <t>Les 4 champs nécessaires de bases sont:</t>
+  </si>
   <si>
     <t>Numéros d'admission</t>
   </si>
@@ -20,109 +23,115 @@
     <t>Noms et prénoms</t>
   </si>
   <si>
-    <t>Numéro du rôle</t>
+    <t>Numéro du rôle (déterminez par la ligne du role dans docs/role.txt)</t>
   </si>
   <si>
     <t>Pseudo de l'élève</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>defg</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>defg</t>
+    <t>Asmani</t>
+  </si>
+  <si>
+    <t>kgjkfg</t>
   </si>
   <si>
     <t>4444</t>
   </si>
   <si>
+    <t>burnie</t>
+  </si>
+  <si>
+    <t>rocher</t>
+  </si>
+  <si>
+    <t>charles</t>
+  </si>
+  <si>
+    <t>dedue</t>
+  </si>
+  <si>
+    <t>fierre</t>
+  </si>
+  <si>
+    <t>fordi</t>
+  </si>
+  <si>
+    <t>frierre</t>
+  </si>
+  <si>
+    <t>Hadryen</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>jlk</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>mercedes</t>
+  </si>
+  <si>
+    <t>Nour</t>
+  </si>
+  <si>
+    <t>Nour Asmani</t>
+  </si>
+  <si>
+    <t>patrick</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>1899999</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Wellan</t>
+  </si>
+  <si>
     <t xml:space="preserve">zbobette </t>
-  </si>
-  <si>
-    <t>rocher</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>burnie</t>
-  </si>
-  <si>
-    <t>charles</t>
-  </si>
-  <si>
-    <t>dedue</t>
-  </si>
-  <si>
-    <t>fierre</t>
-  </si>
-  <si>
-    <t>fordi</t>
-  </si>
-  <si>
-    <t>frierre</t>
-  </si>
-  <si>
-    <t>Hadryen</t>
-  </si>
-  <si>
-    <t>jason</t>
-  </si>
-  <si>
-    <t>jean</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>Kira</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t>jlk</t>
-  </si>
-  <si>
-    <t>louis</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>mercedes</t>
-  </si>
-  <si>
-    <t>Nour</t>
-  </si>
-  <si>
-    <t>Nour Asmani</t>
-  </si>
-  <si>
-    <t>Asmani</t>
-  </si>
-  <si>
-    <t>patrick</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>Wellan</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -178,156 +187,156 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>8.0</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
@@ -340,36 +349,36 @@
         <v>2.0</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
@@ -382,36 +391,36 @@
         <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
@@ -424,36 +433,36 @@
         <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -466,36 +475,36 @@
         <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -508,78 +517,78 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
@@ -589,30 +598,30 @@
         <v>5.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -621,7 +630,7 @@
         <v>0.0</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
@@ -634,78 +643,78 @@
         <v>3.0</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
         <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
@@ -718,36 +727,36 @@
         <v>2.0</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
@@ -760,162 +769,162 @@
         <v>2.0</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
         <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
@@ -928,36 +937,36 @@
         <v>2.0</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
@@ -970,36 +979,36 @@
         <v>2.0</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
@@ -1012,204 +1021,204 @@
         <v>2.0</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H23" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
         <v>1.0</v>
       </c>
       <c r="G24" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n">
         <v>2.0</v>
       </c>
       <c r="I24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
@@ -1222,22 +1231,64 @@
         <v>2.0</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/classes/Classeur1.xlsx
+++ b/classes/Classeur1.xlsx
@@ -220,7 +220,7 @@
         <v>10.0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
